--- a/command_format.xlsx
+++ b/command_format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Comand_format" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>TYPE,</t>
   </si>
@@ -71,9 +71,6 @@
     <t>size (2b, 0-&gt;1 max 4)</t>
   </si>
   <si>
-    <t>Resv(13b)</t>
-  </si>
-  <si>
     <t>$RTEXT,</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>Tail Animation</t>
   </si>
   <si>
-    <t>Text Alignment</t>
-  </si>
-  <si>
     <t>Scrolling Direction</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
   </si>
   <si>
     <t>Scrolling Direction(4b)</t>
-  </si>
-  <si>
-    <t>Text Alignment (2b)</t>
   </si>
   <si>
     <t>Resv(2b)</t>
@@ -237,12 +228,33 @@
   <si>
     <t>EXAMPLE 2 (color=red&amp;green; fontsize=2)</t>
   </si>
+  <si>
+    <t>Text Alignment (Horizontal) (2b)</t>
+  </si>
+  <si>
+    <t>Text Alignment (Vertical) (2b)</t>
+  </si>
+  <si>
+    <t>0: Center</t>
+  </si>
+  <si>
+    <t>1: Up</t>
+  </si>
+  <si>
+    <t>2: Resv</t>
+  </si>
+  <si>
+    <t>Text Alignment (Vertical)</t>
+  </si>
+  <si>
+    <t>Text Alignment (Horizontal)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +279,20 @@
     <font>
       <sz val="8"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.24994659260841701"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -498,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -607,6 +633,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -637,13 +672,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,19 +1010,19 @@
   <sheetData>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -981,7 +1030,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -989,7 +1038,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -1078,7 +1127,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1092,7 +1141,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1102,11 +1151,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F2" sqref="F2"/>
+      <selection pane="topRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,33 +1169,33 @@
     <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>0</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
-        <v>0</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="C2" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
@@ -1169,14 +1218,21 @@
         <f>H2*2^0</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="40">
+        <v>1</v>
+      </c>
+      <c r="M2" s="26">
+        <f>L2*2^0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="9">
         <v>0</v>
@@ -1199,14 +1255,21 @@
         <f>H3*2^1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="42">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27">
+        <f>L3*2^1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="18">
         <v>0</v>
@@ -1229,16 +1292,23 @@
         <f>H4*2^2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" s="41">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28">
+        <f>L4*2^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>42</v>
+      <c r="B5" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -1261,13 +1331,20 @@
         <f>H5*2^3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="29">
+        <f>L5*2^3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="5">
         <v>0</v>
       </c>
@@ -1289,16 +1366,23 @@
         <f>H6*2^4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="29">
+        <f>L6*2^4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
@@ -1321,23 +1405,30 @@
         <f>H7*2^5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7" s="15">
+        <v>1</v>
+      </c>
+      <c r="M7" s="30">
+        <f>L7*2^5</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>6</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>44</v>
+      <c r="B8" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="29">
         <f>D8*2^6</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -1353,13 +1444,20 @@
         <f>H8*2^6</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="29">
+        <f>L8*2^6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>7</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="5">
         <v>0</v>
       </c>
@@ -1381,13 +1479,20 @@
         <f>H9*2^7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="29">
+        <f>L9*2^7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>8</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="5">
         <v>0</v>
       </c>
@@ -1409,13 +1514,20 @@
         <f>H10*2^8</f>
         <v>256</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="29">
+        <f>L10*2^8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>9</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="5">
         <v>0</v>
       </c>
@@ -1437,13 +1549,20 @@
         <f>H11*2^9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="29">
+        <f>L11*2^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>10</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="45"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="5">
         <v>0</v>
       </c>
@@ -1465,13 +1584,20 @@
         <f>H12*2^10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="29">
+        <f>L12*2^10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>11</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="5">
         <v>0</v>
       </c>
@@ -1493,13 +1619,20 @@
         <f>H13*2^11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="29">
+        <f>L13*2^11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>12</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="45"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="5">
         <v>0</v>
       </c>
@@ -1521,13 +1654,20 @@
         <f>H14*2^12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="29">
+        <f>L14*2^12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>13</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="45"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="5">
         <v>0</v>
       </c>
@@ -1549,42 +1689,58 @@
         <f>H15*2^13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="29">
+        <f>L15*2^13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>14</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>21</v>
+      <c r="B16" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>15</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="14"/>
       <c r="D17" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="38" t="str">
         <f>DEC2HEX(SUM(E2:E15))</f>
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G17" s="39" t="str">
         <f>DEC2HEX(SUM(G2:G15))</f>
         <v>2B</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I17" s="39" t="str">
         <f>DEC2HEX(SUM(I2:I15))</f>
         <v>140</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="39" t="str">
+        <f>DEC2HEX(SUM(M2:M15))</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1605,15 +1761,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E25"/>
+  <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -1651,7 +1807,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1675,7 +1831,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -1697,7 +1853,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1721,7 +1877,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -1735,7 +1891,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1743,7 +1899,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1751,7 +1907,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1759,7 +1915,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1767,7 +1923,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
@@ -1789,7 +1945,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1797,7 +1953,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1805,7 +1961,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1813,7 +1969,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1821,7 +1977,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1829,15 +1985,67 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1848,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,41 +2067,43 @@
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="46"/>
+      <c r="J1" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="43" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+    </row>
+    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>38</v>
+      <c r="B2" s="45" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="17">
@@ -1938,12 +2148,19 @@
         <f>N2*2^0</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="40">
+        <v>0</v>
+      </c>
+      <c r="R2" s="26">
+        <f>Q2*2^0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="13"/>
       <c r="D3" s="9">
         <v>0</v>
@@ -1981,18 +2198,25 @@
         <v>0</v>
       </c>
       <c r="N3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="27">
         <f>N3*2^1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="42">
+        <v>0</v>
+      </c>
+      <c r="R3" s="27">
+        <f>Q3*2^1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="14"/>
       <c r="D4" s="18">
         <v>0</v>
@@ -2036,13 +2260,20 @@
         <f>N4*2^2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="41">
+        <v>0</v>
+      </c>
+      <c r="R4" s="28">
+        <f>Q4*2^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>39</v>
+      <c r="B5" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="5">
@@ -2087,12 +2318,19 @@
         <f>N5*2^3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="29">
+        <f>Q5*2^3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="13"/>
       <c r="D6" s="5">
         <v>0</v>
@@ -2130,18 +2368,25 @@
         <v>0</v>
       </c>
       <c r="N6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="29">
         <f>N6*2^4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="29">
+        <f>Q6*2^4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>5</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="13"/>
       <c r="D7" s="5">
         <v>0</v>
@@ -2185,13 +2430,20 @@
         <f>N7*2^5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="29">
+        <f>Q7*2^5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>40</v>
+      <c r="B8" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="17">
@@ -2236,12 +2488,19 @@
         <f>N8*2^6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="40">
+        <v>0</v>
+      </c>
+      <c r="R8" s="26">
+        <f>Q8*2^6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>7</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18">
         <v>0</v>
@@ -2285,13 +2544,20 @@
         <f>N9*2^7</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="41">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28">
+        <f>Q9*2^7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>8</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>41</v>
+      <c r="B10" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="5">
@@ -2336,12 +2602,19 @@
         <f>N10*2^8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="29">
+        <f>Q10*2^8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>9</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="13"/>
       <c r="D11" s="5">
         <v>0</v>
@@ -2385,12 +2658,19 @@
         <f>N11*2^9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="29">
+        <f>Q11*2^9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>10</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="13"/>
       <c r="D12" s="5">
         <v>0</v>
@@ -2434,12 +2714,19 @@
         <f>N12*2^10</f>
         <v>1024</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="29">
+        <f>Q12*2^10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>11</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18">
         <v>0</v>
@@ -2483,93 +2770,226 @@
         <f>N13*2^11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q13" s="41">
+        <v>0</v>
+      </c>
+      <c r="R13" s="28">
+        <f>Q13*2^11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>12</v>
       </c>
-      <c r="B14" s="50" t="s">
-        <v>21</v>
+      <c r="B14" s="59" t="s">
+        <v>67</v>
       </c>
       <c r="C14" s="34"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D14" s="61">
+        <v>0</v>
+      </c>
+      <c r="E14" s="55">
+        <f>D14*2^12</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="61">
+        <v>0</v>
+      </c>
+      <c r="G14" s="55">
+        <f>F14*2^12</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0</v>
+      </c>
+      <c r="I14" s="55">
+        <f>H14*2^12</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="61">
+        <v>0</v>
+      </c>
+      <c r="K14" s="55">
+        <f>J14*2^12</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="61">
+        <v>0</v>
+      </c>
+      <c r="M14" s="55">
+        <f>L14*2^12</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="61">
+        <v>0</v>
+      </c>
+      <c r="O14" s="55">
+        <f>N14*2^12</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="61">
+        <v>1</v>
+      </c>
+      <c r="R14" s="55">
+        <f>Q14*2^12</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>13</v>
       </c>
-      <c r="B15" s="51"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="35"/>
-      <c r="D15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="20" t="str">
-        <f>DEC2HEX(SUM(E2:E13))</f>
-        <v>101</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="20" t="str">
-        <f>DEC2HEX(SUM(G2:G13))</f>
-        <v>109</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="20" t="str">
-        <f>DEC2HEX(SUM(I2:I13))</f>
-        <v>102</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="20" t="str">
-        <f>DEC2HEX(SUM(K2:K13))</f>
-        <v>112</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="20" t="str">
-        <f>DEC2HEX(SUM(M2:M13))</f>
-        <v>380</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="O15" s="20" t="str">
-        <f>DEC2HEX(SUM(O2:O13))</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D15" s="61">
+        <v>0</v>
+      </c>
+      <c r="E15" s="55">
+        <f>D15*2^13</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="61">
+        <v>0</v>
+      </c>
+      <c r="G15" s="55">
+        <f>F15*2^13</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0</v>
+      </c>
+      <c r="I15" s="55">
+        <f>H15*2^13</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="61">
+        <v>0</v>
+      </c>
+      <c r="K15" s="55">
+        <f>J15*2^13</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="61">
+        <v>0</v>
+      </c>
+      <c r="M15" s="55">
+        <f>L15*2^13</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="61">
+        <v>0</v>
+      </c>
+      <c r="O15" s="55">
+        <f>N15*2^13</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="61">
+        <v>0</v>
+      </c>
+      <c r="R15" s="55">
+        <f>Q15*2^13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>14</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="53" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" s="35"/>
-    </row>
-    <row r="17" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="R16" s="56"/>
+    </row>
+    <row r="17" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>15</v>
       </c>
-      <c r="B17" s="52"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="36"/>
+      <c r="E17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="R17" s="57"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="20" t="str">
+        <f>DEC2HEX(SUM(E2:E17))</f>
+        <v>101</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="20" t="str">
+        <f>DEC2HEX(SUM(G2:G17))</f>
+        <v>109</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="20" t="str">
+        <f>DEC2HEX(SUM(I2:I17))</f>
+        <v>102</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="20" t="str">
+        <f>DEC2HEX(SUM(K2:K17))</f>
+        <v>112</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="20" t="str">
+        <f>DEC2HEX(SUM(M2:M17))</f>
+        <v>380</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="20" t="str">
+        <f>DEC2HEX(SUM(O2:O17))</f>
+        <v>492</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="20" t="str">
+        <f>DEC2HEX(SUM(R2:R17))</f>
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/command_format.xlsx
+++ b/command_format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Comand_format" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>TYPE,</t>
   </si>
@@ -217,9 +217,6 @@
     <t>param2,</t>
   </si>
   <si>
-    <t>block timeout(4b in 1s)</t>
-  </si>
-  <si>
     <t>Block Timeout</t>
   </si>
   <si>
@@ -248,6 +245,12 @@
   </si>
   <si>
     <t>Text Alignment (Horizontal)</t>
+  </si>
+  <si>
+    <t>block timeout(5b in 1s)</t>
+  </si>
+  <si>
+    <t>Resv(5b)</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -624,20 +627,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,6 +674,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,28 +695,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1145,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1141,7 +1159,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1151,11 +1169,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L7" sqref="L7"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,24 +1192,24 @@
         <v>30</v>
       </c>
       <c r="C1" s="11"/>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="44"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1218,7 +1236,7 @@
         <f>H2*2^0</f>
         <v>0</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="37">
         <v>1</v>
       </c>
       <c r="M2" s="26">
@@ -1230,7 +1248,7 @@
       <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="13" t="s">
         <v>33</v>
       </c>
@@ -1255,7 +1273,7 @@
         <f>H3*2^1</f>
         <v>0</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="39">
         <v>0</v>
       </c>
       <c r="M3" s="27">
@@ -1267,7 +1285,7 @@
       <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="14" t="s">
         <v>34</v>
       </c>
@@ -1292,7 +1310,7 @@
         <f>H4*2^2</f>
         <v>0</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="38">
         <v>0</v>
       </c>
       <c r="M4" s="28">
@@ -1304,10 +1322,10 @@
       <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="5">
@@ -1343,8 +1361,8 @@
       <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="5">
         <v>0</v>
       </c>
@@ -1418,9 +1436,9 @@
         <v>6</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="5">
@@ -1456,14 +1474,14 @@
       <c r="A9" s="23">
         <v>7</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="48"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="29">
         <f>D9*2^7</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -1491,8 +1509,8 @@
       <c r="A10" s="23">
         <v>8</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="48"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="5">
         <v>0</v>
       </c>
@@ -1526,8 +1544,8 @@
       <c r="A11" s="23">
         <v>9</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="5">
         <v>0</v>
       </c>
@@ -1561,8 +1579,8 @@
       <c r="A12" s="23">
         <v>10</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5">
         <v>0</v>
       </c>
@@ -1596,8 +1614,10 @@
       <c r="A13" s="23">
         <v>11</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="66"/>
       <c r="D13" s="5">
         <v>0</v>
       </c>
@@ -1631,8 +1651,8 @@
       <c r="A14" s="23">
         <v>12</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="48"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="5">
         <v>0</v>
       </c>
@@ -1666,8 +1686,8 @@
       <c r="A15" s="23">
         <v>13</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="5">
         <v>0</v>
       </c>
@@ -1697,65 +1717,122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+    <row r="16" spans="1:13" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
         <v>14</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46">
+        <v>0</v>
+      </c>
+      <c r="E16" s="27">
+        <f>D16*2^14</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="46">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27">
+        <f>F16*2^14</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="46">
+        <v>0</v>
+      </c>
+      <c r="I16" s="27">
+        <f>H16*2^14</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="46">
+        <v>1</v>
+      </c>
+      <c r="M16" s="27">
+        <f>L16*2^14</f>
+        <v>16384</v>
+      </c>
     </row>
     <row r="17" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>15</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="18">
+        <v>0</v>
+      </c>
+      <c r="E17" s="28">
+        <f>D17*2^15</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28">
+        <f>F17*2^15</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28">
+        <f>H17*2^15</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="18">
+        <v>0</v>
+      </c>
+      <c r="M17" s="28">
+        <f>L17*2^15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="38" t="str">
-        <f>DEC2HEX(SUM(E2:E15))</f>
-        <v>41</v>
-      </c>
-      <c r="F17" s="37" t="s">
+      <c r="E18" s="63" t="str">
+        <f>DEC2HEX(SUM(E2:E17))</f>
+        <v>C1</v>
+      </c>
+      <c r="F18" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="39" t="str">
-        <f>DEC2HEX(SUM(G2:G15))</f>
+      <c r="G18" s="64" t="str">
+        <f>DEC2HEX(SUM(G2:G17))</f>
         <v>2B</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H18" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="39" t="str">
-        <f>DEC2HEX(SUM(I2:I15))</f>
+      <c r="I18" s="64" t="str">
+        <f>DEC2HEX(SUM(I2:I17))</f>
         <v>140</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="M17" s="39" t="str">
-        <f>DEC2HEX(SUM(M2:M15))</f>
-        <v>29</v>
+      <c r="M18" s="64" t="str">
+        <f>DEC2HEX(SUM(M2:M17))</f>
+        <v>4029</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B13:B17"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C8:C15"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1763,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -1877,7 +1954,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -1985,7 +2062,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -1999,7 +2076,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2007,7 +2084,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2015,7 +2092,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2059,7 +2136,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,38 +2148,38 @@
       <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="46" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="46" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
+      <c r="O1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
     </row>
     <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="49" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="12"/>
@@ -2148,7 +2225,7 @@
         <f>N2*2^0</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="37">
         <v>0</v>
       </c>
       <c r="R2" s="26">
@@ -2160,7 +2237,7 @@
       <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="13"/>
       <c r="D3" s="9">
         <v>0</v>
@@ -2204,7 +2281,7 @@
         <f>N3*2^1</f>
         <v>2</v>
       </c>
-      <c r="Q3" s="42">
+      <c r="Q3" s="39">
         <v>0</v>
       </c>
       <c r="R3" s="27">
@@ -2216,7 +2293,7 @@
       <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="14"/>
       <c r="D4" s="18">
         <v>0</v>
@@ -2260,7 +2337,7 @@
         <f>N4*2^2</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="38">
         <v>0</v>
       </c>
       <c r="R4" s="28">
@@ -2272,7 +2349,7 @@
       <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="13"/>
@@ -2330,7 +2407,7 @@
       <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="13"/>
       <c r="D6" s="5">
         <v>0</v>
@@ -2386,7 +2463,7 @@
       <c r="A7" s="23">
         <v>5</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="13"/>
       <c r="D7" s="5">
         <v>0</v>
@@ -2442,8 +2519,8 @@
       <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>68</v>
+      <c r="B8" s="61" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="17">
@@ -2488,7 +2565,7 @@
         <f>N8*2^6</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="37">
         <v>0</v>
       </c>
       <c r="R8" s="26">
@@ -2500,7 +2577,7 @@
       <c r="A9" s="24">
         <v>7</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18">
         <v>0</v>
@@ -2544,7 +2621,7 @@
         <f>N9*2^7</f>
         <v>128</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="38">
         <v>0</v>
       </c>
       <c r="R9" s="28">
@@ -2556,7 +2633,7 @@
       <c r="A10" s="23">
         <v>8</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="58" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="13"/>
@@ -2603,18 +2680,18 @@
         <v>0</v>
       </c>
       <c r="Q10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="29">
         <f>Q10*2^8</f>
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="13"/>
       <c r="D11" s="5">
         <v>0</v>
@@ -2670,7 +2747,7 @@
       <c r="A12" s="23">
         <v>10</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="13"/>
       <c r="D12" s="5">
         <v>0</v>
@@ -2726,7 +2803,7 @@
       <c r="A13" s="24">
         <v>11</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18">
         <v>0</v>
@@ -2770,7 +2847,7 @@
         <f>N13*2^11</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="38">
         <v>0</v>
       </c>
       <c r="R13" s="28">
@@ -2782,112 +2859,112 @@
       <c r="A14" s="32">
         <v>12</v>
       </c>
-      <c r="B14" s="59" t="s">
-        <v>67</v>
+      <c r="B14" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="C14" s="34"/>
-      <c r="D14" s="61">
-        <v>0</v>
-      </c>
-      <c r="E14" s="55">
+      <c r="D14" s="43">
+        <v>0</v>
+      </c>
+      <c r="E14" s="40">
         <f>D14*2^12</f>
         <v>0</v>
       </c>
-      <c r="F14" s="61">
-        <v>0</v>
-      </c>
-      <c r="G14" s="55">
+      <c r="F14" s="43">
+        <v>0</v>
+      </c>
+      <c r="G14" s="40">
         <f>F14*2^12</f>
         <v>0</v>
       </c>
-      <c r="H14" s="61">
-        <v>0</v>
-      </c>
-      <c r="I14" s="55">
+      <c r="H14" s="43">
+        <v>0</v>
+      </c>
+      <c r="I14" s="40">
         <f>H14*2^12</f>
         <v>0</v>
       </c>
-      <c r="J14" s="61">
-        <v>0</v>
-      </c>
-      <c r="K14" s="55">
+      <c r="J14" s="43">
+        <v>0</v>
+      </c>
+      <c r="K14" s="40">
         <f>J14*2^12</f>
         <v>0</v>
       </c>
-      <c r="L14" s="61">
-        <v>0</v>
-      </c>
-      <c r="M14" s="55">
+      <c r="L14" s="43">
+        <v>0</v>
+      </c>
+      <c r="M14" s="40">
         <f>L14*2^12</f>
         <v>0</v>
       </c>
-      <c r="N14" s="61">
-        <v>0</v>
-      </c>
-      <c r="O14" s="55">
+      <c r="N14" s="43">
+        <v>0</v>
+      </c>
+      <c r="O14" s="40">
         <f>N14*2^12</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="61">
-        <v>1</v>
-      </c>
-      <c r="R14" s="55">
+      <c r="Q14" s="43">
+        <v>0</v>
+      </c>
+      <c r="R14" s="40">
         <f>Q14*2^12</f>
-        <v>4096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>13</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="35"/>
-      <c r="D15" s="61">
-        <v>0</v>
-      </c>
-      <c r="E15" s="55">
+      <c r="D15" s="43">
+        <v>0</v>
+      </c>
+      <c r="E15" s="40">
         <f>D15*2^13</f>
         <v>0</v>
       </c>
-      <c r="F15" s="61">
-        <v>0</v>
-      </c>
-      <c r="G15" s="55">
+      <c r="F15" s="43">
+        <v>0</v>
+      </c>
+      <c r="G15" s="40">
         <f>F15*2^13</f>
         <v>0</v>
       </c>
-      <c r="H15" s="61">
-        <v>0</v>
-      </c>
-      <c r="I15" s="55">
+      <c r="H15" s="43">
+        <v>0</v>
+      </c>
+      <c r="I15" s="40">
         <f>H15*2^13</f>
         <v>0</v>
       </c>
-      <c r="J15" s="61">
-        <v>0</v>
-      </c>
-      <c r="K15" s="55">
+      <c r="J15" s="43">
+        <v>0</v>
+      </c>
+      <c r="K15" s="40">
         <f>J15*2^13</f>
         <v>0</v>
       </c>
-      <c r="L15" s="61">
-        <v>0</v>
-      </c>
-      <c r="M15" s="55">
+      <c r="L15" s="43">
+        <v>0</v>
+      </c>
+      <c r="M15" s="40">
         <f>L15*2^13</f>
         <v>0</v>
       </c>
-      <c r="N15" s="61">
-        <v>0</v>
-      </c>
-      <c r="O15" s="55">
+      <c r="N15" s="43">
+        <v>0</v>
+      </c>
+      <c r="O15" s="40">
         <f>N15*2^13</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="61">
-        <v>0</v>
-      </c>
-      <c r="R15" s="55">
+      <c r="Q15" s="43">
+        <v>0</v>
+      </c>
+      <c r="R15" s="40">
         <f>Q15*2^13</f>
         <v>0</v>
       </c>
@@ -2896,31 +2973,31 @@
       <c r="A16" s="32">
         <v>14</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="54" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="E16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="R16" s="56"/>
+      <c r="E16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="R16" s="41"/>
     </row>
     <row r="17" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>15</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="36"/>
-      <c r="E17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="R17" s="57"/>
+      <c r="E17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="R17" s="42"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D18" s="19" t="s">
@@ -2970,7 +3047,7 @@
       </c>
       <c r="R18" s="20" t="str">
         <f>DEC2HEX(SUM(R2:R17))</f>
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
